--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>23864.03699774095</v>
+        <v>54059.01371073491</v>
       </c>
       <c r="R2">
-        <v>95456.14799096381</v>
+        <v>216236.0548429396</v>
       </c>
       <c r="S2">
-        <v>0.05514315319827937</v>
+        <v>0.1240979654870068</v>
       </c>
       <c r="T2">
-        <v>0.03163898741175867</v>
+        <v>0.08051857906871472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>17221.06770147121</v>
+        <v>31853.62987909426</v>
       </c>
       <c r="R3">
-        <v>103326.4062088273</v>
+        <v>191121.7792745655</v>
       </c>
       <c r="S3">
-        <v>0.03979309848497395</v>
+        <v>0.07312324791058397</v>
       </c>
       <c r="T3">
-        <v>0.03424758838637421</v>
+        <v>0.07116692037065721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>12257.30468861705</v>
+        <v>20816.46763717818</v>
       </c>
       <c r="R4">
-        <v>73543.82813170232</v>
+        <v>124898.8058230691</v>
       </c>
       <c r="S4">
-        <v>0.02832322252544201</v>
+        <v>0.04778631915526325</v>
       </c>
       <c r="T4">
-        <v>0.02437613816861477</v>
+        <v>0.04650785170658692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>20286.98124701082</v>
+        <v>46142.56100734264</v>
       </c>
       <c r="R5">
-        <v>81147.92498804328</v>
+        <v>184570.2440293706</v>
       </c>
       <c r="S5">
-        <v>0.04687757209479841</v>
+        <v>0.1059249429523761</v>
       </c>
       <c r="T5">
-        <v>0.02689651982845652</v>
+        <v>0.06872736278140661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>17651.57232470025</v>
+        <v>16052.90031170993</v>
       </c>
       <c r="R6">
-        <v>105909.4339482015</v>
+        <v>96317.40187025959</v>
       </c>
       <c r="S6">
-        <v>0.0407878749510653</v>
+        <v>0.03685106575396781</v>
       </c>
       <c r="T6">
-        <v>0.03510373420673582</v>
+        <v>0.03586515830496752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>11547.33776505544</v>
+        <v>23136.34166162134</v>
       </c>
       <c r="R7">
-        <v>69284.02659033264</v>
+        <v>138818.049969728</v>
       </c>
       <c r="S7">
-        <v>0.02668268639840805</v>
+        <v>0.05311182598304287</v>
       </c>
       <c r="T7">
-        <v>0.02296422484317088</v>
+        <v>0.05169088078660575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>48710.63305124374</v>
+        <v>59655.3121564056</v>
       </c>
       <c r="R8">
-        <v>292263.7983074624</v>
+        <v>357931.8729384335</v>
       </c>
       <c r="S8">
-        <v>0.1125567271364931</v>
+        <v>0.1369448378898586</v>
       </c>
       <c r="T8">
-        <v>0.09687098034207209</v>
+        <v>0.1332810378608673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>35151.1820752037</v>
+        <v>35151.18207520371</v>
       </c>
       <c r="R9">
-        <v>316360.6386768333</v>
+        <v>316360.6386768334</v>
       </c>
       <c r="S9">
-        <v>0.08122460665213767</v>
+        <v>0.0806931144422616</v>
       </c>
       <c r="T9">
-        <v>0.1048578899875551</v>
+        <v>0.1178013958774434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>25019.28198238355</v>
+        <v>22971.43047289786</v>
       </c>
       <c r="R10">
-        <v>225173.537841452</v>
+        <v>206742.8742560807</v>
       </c>
       <c r="S10">
-        <v>0.05781260309796403</v>
+        <v>0.05273325557263667</v>
       </c>
       <c r="T10">
-        <v>0.07463388036463896</v>
+        <v>0.07698365788153444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>41409.24267483128</v>
+        <v>50919.33225637819</v>
       </c>
       <c r="R11">
-        <v>248455.4560489877</v>
+        <v>305515.9935382691</v>
       </c>
       <c r="S11">
-        <v>0.0956852444060117</v>
+        <v>0.1168905073034775</v>
       </c>
       <c r="T11">
-        <v>0.08235068365696904</v>
+        <v>0.1137632375892899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>36029.91657980401</v>
+        <v>17714.72902252656</v>
       </c>
       <c r="R12">
-        <v>324269.2492182361</v>
+        <v>159432.561202739</v>
       </c>
       <c r="S12">
-        <v>0.08325511772670464</v>
+        <v>0.04066596262026572</v>
       </c>
       <c r="T12">
-        <v>0.1074792028587557</v>
+        <v>0.05936698805689293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>23570.11651656551</v>
+        <v>25531.4625488107</v>
       </c>
       <c r="R13">
-        <v>212131.0486490896</v>
+        <v>229783.1629392963</v>
       </c>
       <c r="S13">
-        <v>0.05446398470205621</v>
+        <v>0.0586100696392458</v>
       </c>
       <c r="T13">
-        <v>0.07031094087818267</v>
+        <v>0.08556303798284541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>29.75414417005567</v>
+        <v>3.443647267969334</v>
       </c>
       <c r="R14">
-        <v>178.524865020334</v>
+        <v>20.661883607816</v>
       </c>
       <c r="S14">
-        <v>6.875355290508425E-05</v>
+        <v>7.905242631628357E-06</v>
       </c>
       <c r="T14">
-        <v>5.917215471128119E-05</v>
+        <v>7.693747049690191E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>21.47156121155733</v>
+        <v>2.029128131989333</v>
       </c>
       <c r="R15">
-        <v>193.244050904016</v>
+        <v>18.262153187904</v>
       </c>
       <c r="S15">
-        <v>4.961480697533367E-05</v>
+        <v>4.658070053585214E-06</v>
       </c>
       <c r="T15">
-        <v>6.405083614444811E-05</v>
+        <v>6.800173201889327E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>15.282645215306</v>
+        <v>1.326042911014222</v>
       </c>
       <c r="R16">
-        <v>137.543806937754</v>
+        <v>11.934386199128</v>
       </c>
       <c r="S16">
-        <v>3.531394317157427E-05</v>
+        <v>3.044066402799634E-06</v>
       </c>
       <c r="T16">
-        <v>4.55889627630995E-05</v>
+        <v>4.443938914391647E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>25.29420168330767</v>
+        <v>2.939356330108</v>
       </c>
       <c r="R17">
-        <v>151.765210099846</v>
+        <v>17.636137980648</v>
       </c>
       <c r="S17">
-        <v>5.844786607491628E-05</v>
+        <v>6.74759148140586E-06</v>
       </c>
       <c r="T17">
-        <v>5.030265386726565E-05</v>
+        <v>6.567067510980048E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H18">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I18">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>22.00832272540533</v>
+        <v>1.022595909670222</v>
       </c>
       <c r="R18">
-        <v>198.074904528648</v>
+        <v>9.203363187032</v>
       </c>
       <c r="S18">
-        <v>5.085511356687402E-05</v>
+        <v>2.347472941042755E-06</v>
       </c>
       <c r="T18">
-        <v>6.565202496501785E-05</v>
+        <v>3.427003544859255E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>14.39744468525222</v>
+        <v>1.473822666839111</v>
       </c>
       <c r="R19">
-        <v>129.57700216727</v>
+        <v>13.264404001552</v>
       </c>
       <c r="S19">
-        <v>3.326849091030874E-05</v>
+        <v>3.383309866177761E-06</v>
       </c>
       <c r="T19">
-        <v>4.294836138591903E-05</v>
+        <v>4.93919001238758E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>5061.67632128975</v>
+        <v>8769.267654718449</v>
       </c>
       <c r="R20">
-        <v>20246.705285159</v>
+        <v>35077.0706188738</v>
       </c>
       <c r="S20">
-        <v>0.01169612638680563</v>
+        <v>0.02013074601369343</v>
       </c>
       <c r="T20">
-        <v>0.006710780469659988</v>
+        <v>0.01306144752860995</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>3652.670779052015</v>
+        <v>5167.186506191199</v>
       </c>
       <c r="R21">
-        <v>21916.02467431209</v>
+        <v>31003.1190371472</v>
       </c>
       <c r="S21">
-        <v>0.008440306406297088</v>
+        <v>0.01186180229150032</v>
       </c>
       <c r="T21">
-        <v>0.007264077205922789</v>
+        <v>0.01154445355277355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2599.832916412254</v>
+        <v>3376.775930707567</v>
       </c>
       <c r="R22">
-        <v>15598.99749847352</v>
+        <v>20260.6555842454</v>
       </c>
       <c r="S22">
-        <v>0.006007490887364176</v>
+        <v>0.00775173267401082</v>
       </c>
       <c r="T22">
-        <v>0.005170295427560921</v>
+        <v>0.007544344072633851</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>4302.965697638019</v>
+        <v>7485.08786920785</v>
       </c>
       <c r="R23">
-        <v>17211.86279055208</v>
+        <v>29940.3514768314</v>
       </c>
       <c r="S23">
-        <v>0.009942957123903884</v>
+        <v>0.01718278067429323</v>
       </c>
       <c r="T23">
-        <v>0.005704880425457195</v>
+        <v>0.01114871689405997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>3743.982867522647</v>
+        <v>2604.046389398766</v>
       </c>
       <c r="R24">
-        <v>22463.89720513588</v>
+        <v>15624.2783363926</v>
       </c>
       <c r="S24">
-        <v>0.008651303249952148</v>
+        <v>0.005977853400865894</v>
       </c>
       <c r="T24">
-        <v>0.007445669826941011</v>
+        <v>0.005817922878468159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>2449.24553816477</v>
+        <v>3753.097932333933</v>
       </c>
       <c r="R25">
-        <v>14695.47322898862</v>
+        <v>22518.5875940036</v>
       </c>
       <c r="S25">
-        <v>0.005659525332784526</v>
+        <v>0.008615618112611717</v>
       </c>
       <c r="T25">
-        <v>0.00487082186205357</v>
+        <v>0.008385117260026441</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>22646.96476728013</v>
+        <v>116.181977919843</v>
       </c>
       <c r="R26">
-        <v>135881.7886036808</v>
+        <v>697.0918675190579</v>
       </c>
       <c r="S26">
-        <v>0.05233083772692697</v>
+        <v>0.0002667075497022207</v>
       </c>
       <c r="T26">
-        <v>0.04503808596515</v>
+        <v>0.0002595720990829202</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>16342.78867096474</v>
+        <v>68.458846531728</v>
       </c>
       <c r="R27">
-        <v>147085.0980386827</v>
+        <v>616.1296187855519</v>
       </c>
       <c r="S27">
-        <v>0.03776363988437594</v>
+        <v>0.0001571542466467093</v>
       </c>
       <c r="T27">
-        <v>0.04875142841238156</v>
+        <v>0.0002294246510499604</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>11632.17889124148</v>
+        <v>44.738115207446</v>
       </c>
       <c r="R28">
-        <v>104689.6100211733</v>
+        <v>402.643036867014</v>
       </c>
       <c r="S28">
-        <v>0.02687873064772069</v>
+        <v>0.0001027008947420896</v>
       </c>
       <c r="T28">
-        <v>0.03469942296346776</v>
+        <v>0.0001499298774387654</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>19252.33981069585</v>
+        <v>99.168180033879</v>
       </c>
       <c r="R29">
-        <v>115514.0388641751</v>
+        <v>595.0090802032739</v>
       </c>
       <c r="S29">
-        <v>0.04448680345689338</v>
+        <v>0.0002276506458128328</v>
       </c>
       <c r="T29">
-        <v>0.03828718525129474</v>
+        <v>0.0002215601172790025</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>16751.33744397168</v>
+        <v>34.500402089174</v>
       </c>
       <c r="R30">
-        <v>150762.0369957451</v>
+        <v>310.5036188025659</v>
       </c>
       <c r="S30">
-        <v>0.03870768248626359</v>
+        <v>7.919918277939234E-05</v>
       </c>
       <c r="T30">
-        <v>0.04997015164629327</v>
+        <v>0.0001156204509920228</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>10958.42046950603</v>
+        <v>49.723917466564</v>
       </c>
       <c r="R31">
-        <v>98625.78422555431</v>
+        <v>447.5152571990759</v>
       </c>
       <c r="S31">
-        <v>0.02532186229925536</v>
+        <v>0.0001141463110419101</v>
       </c>
       <c r="T31">
-        <v>0.03268956490767393</v>
+        <v>0.0001666386886655527</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>121.585079281826</v>
+        <v>8.669584896573332</v>
       </c>
       <c r="R32">
-        <v>729.510475690956</v>
+        <v>52.01750937943999</v>
       </c>
       <c r="S32">
-        <v>0.0002809493068627639</v>
+        <v>1.990191410147735E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002417966075827526</v>
+        <v>1.936946151264285E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>87.73976012521598</v>
+        <v>5.108449628373332</v>
       </c>
       <c r="R33">
-        <v>789.6578411269438</v>
+        <v>45.97604665535999</v>
       </c>
       <c r="S33">
-        <v>0.0002027421862706244</v>
+        <v>1.172696581306844E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002617324815723443</v>
+        <v>1.711983670149443E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>62.44984293680399</v>
+        <v>3.338391158835555</v>
       </c>
       <c r="R34">
-        <v>562.048586431236</v>
+        <v>30.04552042952</v>
       </c>
       <c r="S34">
-        <v>0.0001443042204719452</v>
+        <v>7.663616525231481E-06</v>
       </c>
       <c r="T34">
-        <v>0.0001862912816529952</v>
+        <v>1.118787805355662E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>103.360308381194</v>
+        <v>7.400002747719999</v>
       </c>
       <c r="R35">
-        <v>620.161850287164</v>
+        <v>44.40001648631999</v>
       </c>
       <c r="S35">
-        <v>0.0002388369294023942</v>
+        <v>1.698745912206594E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002055529516689272</v>
+        <v>1.653297939005902E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>89.93314168724798</v>
+        <v>2.574445453875555</v>
       </c>
       <c r="R36">
-        <v>809.3982751852319</v>
+        <v>23.17000908488</v>
       </c>
       <c r="S36">
-        <v>0.0002078104811072801</v>
+        <v>5.90990144201961E-06</v>
       </c>
       <c r="T36">
-        <v>0.0002682754581937344</v>
+        <v>8.627683342996687E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>58.83262659168668</v>
+        <v>3.710435401297777</v>
       </c>
       <c r="R37">
-        <v>529.4936393251801</v>
+        <v>33.39391861167999</v>
       </c>
       <c r="S37">
-        <v>0.0001359458394030168</v>
+        <v>8.517681932487478E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001755009283509064</v>
+        <v>1.243470187292206E-05</v>
       </c>
     </row>
   </sheetData>
